--- a/project-plan.xlsx
+++ b/project-plan.xlsx
@@ -23,6 +23,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Completion Week</t>
+  </si>
+  <si>
+    <t>Starting Week</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PERT Diagram Key</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -42,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -50,12 +115,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +220,804 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Group 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5838825" y="695325"/>
+          <a:ext cx="12449175" cy="6915150"/>
+          <a:chOff x="5838825" y="695325"/>
+          <a:chExt cx="12449175" cy="6915150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5838825" y="695325"/>
+            <a:ext cx="12449175" cy="6915150"/>
+            <a:chOff x="5886450" y="628650"/>
+            <a:chExt cx="10010775" cy="4752975"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5886450" y="628650"/>
+              <a:ext cx="10010775" cy="4752975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7858125" y="733425"/>
+              <a:ext cx="5829300" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="38100" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="3200"/>
+                <a:t>PERT</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="3200" baseline="0"/>
+                <a:t> Diagram</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="3200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="Group 14"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6724650" y="3714750"/>
+            <a:ext cx="590550" cy="514350"/>
+            <a:chOff x="1771650" y="5543550"/>
+            <a:chExt cx="590550" cy="514350"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Oval 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1771650" y="5543550"/>
+              <a:ext cx="590550" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1895475" y="5553075"/>
+              <a:ext cx="342900" cy="380999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Oval 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="2838450"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="2857500"/>
+          <a:ext cx="342900" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4743450"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="4762500"/>
+          <a:ext cx="342900" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="3724275"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="3733800"/>
+          <a:ext cx="342900" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142116</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10284</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="7"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7228716" y="3277475"/>
+          <a:ext cx="1087368" cy="512600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="4"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="4229100"/>
+          <a:ext cx="1209675" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427866</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381759</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="5"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8733666" y="3277475"/>
+          <a:ext cx="1173093" cy="522125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381759</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="6"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8820150" y="4163300"/>
+          <a:ext cx="1086609" cy="837325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +1283,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project-plan.xlsx
+++ b/project-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>PERT Diagram Key</t>
+  </si>
+  <si>
+    <t>Statement of Work</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Publication Test</t>
+  </si>
+  <si>
+    <t>Draft Purposal</t>
+  </si>
+  <si>
+    <t>Draft Paper/Conference Paper</t>
+  </si>
+  <si>
+    <t>Primitive Prototype</t>
+  </si>
+  <si>
+    <t>Final Deliverable Tests and Features</t>
   </si>
 </sst>
 </file>
@@ -194,8 +215,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,6 +222,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -244,7 +269,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5838825" y="695325"/>
+          <a:off x="5876925" y="695325"/>
           <a:ext cx="12449175" cy="6915150"/>
           <a:chOff x="5838825" y="695325"/>
           <a:chExt cx="12449175" cy="6915150"/>
@@ -369,9 +394,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6724650" y="3714750"/>
+            <a:off x="5934075" y="3609975"/>
             <a:ext cx="590550" cy="514350"/>
-            <a:chOff x="1771650" y="5543550"/>
+            <a:chOff x="981075" y="5438775"/>
             <a:chExt cx="590550" cy="514350"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -382,7 +407,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1771650" y="5543550"/>
+              <a:off x="981075" y="5438775"/>
               <a:ext cx="590550" cy="514350"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
@@ -421,7 +446,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1895475" y="5553075"/>
+              <a:off x="1104900" y="5448300"/>
               <a:ext cx="342900" cy="380999"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -468,16 +493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -486,7 +511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="2838450"/>
+          <a:off x="7200900" y="3609975"/>
           <a:ext cx="590550" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -522,16 +547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -540,7 +565,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="2857500"/>
+          <a:off x="7334250" y="3629025"/>
           <a:ext cx="342900" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -586,15 +611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -603,7 +628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="4743450"/>
+          <a:off x="7896225" y="3609975"/>
           <a:ext cx="590550" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -639,16 +664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -657,7 +682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="4762500"/>
+          <a:off x="8020050" y="3638550"/>
           <a:ext cx="342900" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -702,16 +727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -720,7 +745,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9820275" y="3724275"/>
+          <a:off x="8943975" y="3600450"/>
           <a:ext cx="590550" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -756,16 +781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -774,7 +799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9944100" y="3733800"/>
+          <a:off x="9067800" y="3609975"/>
           <a:ext cx="342900" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -819,29 +844,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142116</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10284</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="7"/>
-          <a:endCxn id="17" idx="3"/>
+          <a:stCxn id="13" idx="6"/>
+          <a:endCxn id="17" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7228716" y="3277475"/>
-          <a:ext cx="1087368" cy="512600"/>
+        <a:xfrm>
+          <a:off x="6648450" y="3867150"/>
+          <a:ext cx="552450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -869,29 +894,128 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="4"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="4124325"/>
+          <a:ext cx="1819275" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="6"/>
+          <a:endCxn id="50" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9544050" y="4114800"/>
+          <a:ext cx="762000" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="4"/>
           <a:endCxn id="19" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="4229100"/>
-          <a:ext cx="1209675" cy="771525"/>
+          <a:off x="7219950" y="3867150"/>
+          <a:ext cx="676275" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -920,28 +1044,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>427866</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19925</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381759</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="5"/>
-          <a:endCxn id="21" idx="1"/>
+          <a:stCxn id="19" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8733666" y="3277475"/>
-          <a:ext cx="1173093" cy="522125"/>
+          <a:off x="8486775" y="3867150"/>
+          <a:ext cx="476250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -969,29 +1092,430 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381759</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="4524375"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9077325" y="4533900"/>
+          <a:ext cx="342900" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="5219700"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9077325" y="5229225"/>
+          <a:ext cx="342900" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="4"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="4124325"/>
+          <a:ext cx="1819275" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Oval 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="3600450"/>
+          <a:ext cx="590550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="3609975"/>
+          <a:ext cx="342900" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="6"/>
-          <a:endCxn id="21" idx="3"/>
+          <a:stCxn id="21" idx="6"/>
+          <a:endCxn id="50" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8820150" y="4163300"/>
-          <a:ext cx="1086609" cy="837325"/>
+        <a:xfrm>
+          <a:off x="9534525" y="3857625"/>
+          <a:ext cx="476250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1286,160 +1810,202 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD47" sqref="AD47"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/project-plan.xlsx
+++ b/project-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>A</t>
   </si>
@@ -105,6 +105,36 @@
   </si>
   <si>
     <t>Final Deliverable Tests and Features</t>
+  </si>
+  <si>
+    <t>Basic Upload Feature</t>
+  </si>
+  <si>
+    <t>Publishing Uploads</t>
+  </si>
+  <si>
+    <t>Read List of Uploaded Papers</t>
+  </si>
+  <si>
+    <t>Database Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Status </t>
+  </si>
+  <si>
+    <t>Domain Checks</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Revised Uploads</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -215,6 +245,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,12 +258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -259,235 +289,236 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Group 15"/>
+        <xdr:cNvPr id="4" name="Group 3"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5876925" y="695325"/>
-          <a:ext cx="12449175" cy="6915150"/>
-          <a:chOff x="5838825" y="695325"/>
-          <a:chExt cx="12449175" cy="6915150"/>
+          <a:off x="6054546" y="695057"/>
+          <a:ext cx="12325216" cy="8508910"/>
+          <a:chOff x="5886450" y="628650"/>
+          <a:chExt cx="10010775" cy="4752975"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Group 3"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="5838825" y="695325"/>
-            <a:ext cx="12449175" cy="6915150"/>
-            <a:chOff x="5886450" y="628650"/>
-            <a:chExt cx="10010775" cy="4752975"/>
+            <a:off x="5886450" y="628650"/>
+            <a:ext cx="10010775" cy="4752975"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Rectangle 1"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5886450" y="628650"/>
-              <a:ext cx="10010775" cy="4752975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7858125" y="733425"/>
+            <a:ext cx="5829300" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="38100" cmpd="sng">
             <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7858125" y="733425"/>
-              <a:ext cx="5829300" cy="514350"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="38100" cmpd="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="3200"/>
-                <a:t>PERT</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="3200" baseline="0"/>
-                <a:t> Diagram</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="3200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="Group 14"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="3200"/>
+              <a:t>PERT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="3200" baseline="0"/>
+              <a:t> Diagram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="3200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313108</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89519</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6390326" y="5251633"/>
+          <a:ext cx="584669" cy="499224"/>
+          <a:chOff x="1224982" y="6227232"/>
+          <a:chExt cx="590550" cy="405717"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Oval 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="5934075" y="3609975"/>
-            <a:ext cx="590550" cy="514350"/>
-            <a:chOff x="981075" y="5438775"/>
-            <a:chExt cx="590550" cy="514350"/>
+            <a:off x="1224982" y="6244019"/>
+            <a:ext cx="590550" cy="388930"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Oval 12"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="981075" y="5438775"/>
-              <a:ext cx="590550" cy="514350"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1104900" y="5448300"/>
-              <a:ext cx="342900" cy="380999"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1301688" y="6227232"/>
+            <a:ext cx="444221" cy="333644"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>A</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -495,13 +526,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -549,13 +580,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -610,70 +641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="3609975"/>
-          <a:ext cx="590550" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105848</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442845</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16098</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -682,8 +659,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020050" y="3638550"/>
-          <a:ext cx="342900" cy="380999"/>
+          <a:off x="7202644" y="4547852"/>
+          <a:ext cx="336997" cy="378316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,16 +704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -745,8 +722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="3600450"/>
-          <a:ext cx="590550" cy="514350"/>
+          <a:off x="7967191" y="5250286"/>
+          <a:ext cx="584648" cy="506301"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -781,15 +758,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335387</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164072</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -799,8 +776,775 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067800" y="3609975"/>
-          <a:ext cx="342900" cy="380999"/>
+          <a:off x="8035880" y="5259812"/>
+          <a:ext cx="432382" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="6"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6787179" y="5511573"/>
+          <a:ext cx="305995" cy="1390"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>408337</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="5"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9316224" y="5687271"/>
+          <a:ext cx="364262" cy="445353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>402465</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267936</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9310352" y="4822108"/>
+          <a:ext cx="469169" cy="503843"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="6"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7677821" y="5503437"/>
+          <a:ext cx="289370" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513006</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="6"/>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8551839" y="5503437"/>
+          <a:ext cx="265357" cy="4830"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182316</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163267</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9693901" y="4389953"/>
+          <a:ext cx="584648" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>306141</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>39442</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9817726" y="4399478"/>
+          <a:ext cx="336998" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168901</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149852</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9680486" y="5879473"/>
+          <a:ext cx="584648" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292726</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26027</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>39842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9804311" y="5888998"/>
+          <a:ext cx="336998" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149852</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>521892</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="6"/>
+          <a:endCxn id="50" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10265134" y="5695858"/>
+          <a:ext cx="372040" cy="436766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>436272</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>417222</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Oval 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10551554" y="5263703"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>560097</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10675379" y="5273228"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513006</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493957</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Oval 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8817196" y="5255116"/>
+          <a:ext cx="584648" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581695</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410380</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8885885" y="5264642"/>
+          <a:ext cx="432382" cy="375633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,29 +1588,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77647</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>521892</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52145</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="6"/>
-          <a:endCxn id="17" idx="2"/>
+          <a:stCxn id="34" idx="5"/>
+          <a:endCxn id="50" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648450" y="3867150"/>
-          <a:ext cx="552450" cy="0"/>
+          <a:off x="10192929" y="4822108"/>
+          <a:ext cx="444245" cy="515741"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -894,224 +1638,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="4"/>
-          <a:endCxn id="34" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="4124325"/>
-          <a:ext cx="1819275" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="6"/>
-          <a:endCxn id="50" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9544050" y="4114800"/>
-          <a:ext cx="762000" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="19" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7219950" y="3867150"/>
-          <a:ext cx="676275" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="3867150"/>
-          <a:ext cx="476250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52053</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33003</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113495</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Oval 33"/>
+        <xdr:cNvPr id="64" name="Oval 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="4524375"/>
-          <a:ext cx="590550" cy="514350"/>
+          <a:off x="11374729" y="5268532"/>
+          <a:ext cx="584647" cy="506301"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1146,26 +1692,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175878</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518778</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvPr id="65" name="TextBox 64"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077325" y="4533900"/>
-          <a:ext cx="342900" cy="380999"/>
+          <a:off x="11498554" y="5278057"/>
+          <a:ext cx="342900" cy="375633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,7 +1746,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>E</a:t>
+            <a:t>H</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1209,26 +1755,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>417222</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52053</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="6"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11136201" y="5516854"/>
+          <a:ext cx="238528" cy="4829"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593502</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574452</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>145155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvPr id="70" name="Oval 69"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="5219700"/>
-          <a:ext cx="590550" cy="514350"/>
+          <a:off x="11312481" y="6802727"/>
+          <a:ext cx="584647" cy="506301"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1263,26 +1859,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100215</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>443115</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvPr id="71" name="TextBox 70"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077325" y="5229225"/>
-          <a:ext cx="342900" cy="380999"/>
+          <a:off x="11422891" y="6825667"/>
+          <a:ext cx="342900" cy="375633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,7 +1913,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>F</a:t>
+            <a:t>I</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1326,76 +1922,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="4"/>
-          <a:endCxn id="40" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="4124325"/>
-          <a:ext cx="1819275" cy="1352550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21466</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>46148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2416</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Oval 49"/>
+        <xdr:cNvPr id="72" name="Oval 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10010775" y="3600450"/>
-          <a:ext cx="590550" cy="514350"/>
+          <a:off x="11344142" y="7585655"/>
+          <a:ext cx="584647" cy="506301"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1430,26 +1976,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131876</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>474776</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvPr id="73" name="TextBox 72"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="3609975"/>
-          <a:ext cx="342900" cy="380999"/>
+          <a:off x="11454552" y="7608595"/>
+          <a:ext cx="342900" cy="375633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,7 +2030,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>G</a:t>
+            <a:t>J</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1493,29 +2039,1281 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>559022</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21466</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111482</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="6"/>
-          <a:endCxn id="50" idx="2"/>
+          <a:stCxn id="21" idx="4"/>
+          <a:endCxn id="72" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9534525" y="3857625"/>
-          <a:ext cx="476250" cy="0"/>
+          <a:off x="8259515" y="5756587"/>
+          <a:ext cx="3084627" cy="2082219"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>559022</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593502</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>79822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="4"/>
+          <a:endCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8259515" y="5756587"/>
+          <a:ext cx="3052966" cy="1299291"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>132546</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113496</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>46418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Oval 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14057828" y="5201455"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>256371</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599271</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>113092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="TextBox 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14181653" y="5210980"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527363</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508313</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Oval 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12641553" y="3753789"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47491</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390391</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12765378" y="3763314"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518777</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>499727</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Oval 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12632967" y="4563548"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38905</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381805</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="TextBox 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12756792" y="4573073"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510191</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>491141</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Oval 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12624381" y="5856265"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>373219</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="TextBox 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12748206" y="5865790"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>474774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455724</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Oval 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12588964" y="6639193"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598599</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>337802</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="TextBox 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12712789" y="6648718"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33003</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518777</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="6"/>
+          <a:endCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12147193" y="4816699"/>
+          <a:ext cx="485774" cy="704984"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551080</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527363</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="7"/>
+          <a:endCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12061573" y="4006940"/>
+          <a:ext cx="579980" cy="1335738"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510191</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="5"/>
+          <a:endCxn id="88" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12061573" y="5700687"/>
+          <a:ext cx="562808" cy="408729"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344377</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>474774</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="4"/>
+          <a:endCxn id="90" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11854870" y="5774833"/>
+          <a:ext cx="734094" cy="1117511"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455724</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218166</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="6"/>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13173611" y="5633610"/>
+          <a:ext cx="969837" cy="1258734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>491141</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>132546</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Arrow Connector 108"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="6"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13209028" y="5454606"/>
+          <a:ext cx="848800" cy="654810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>499727</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218166</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="6"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13217614" y="4816699"/>
+          <a:ext cx="925834" cy="458902"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>427821</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="6"/>
+          <a:endCxn id="83" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13226200" y="4006940"/>
+          <a:ext cx="1126903" cy="1204040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>528436</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509386</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Oval 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12642626" y="5203735"/>
+          <a:ext cx="584647" cy="506301"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>48564</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>391464</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="TextBox 123"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12766451" y="5213260"/>
+          <a:ext cx="342900" cy="375633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33003</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>528436</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Arrow Connector 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="6"/>
+          <a:endCxn id="123" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12147193" y="5456886"/>
+          <a:ext cx="495433" cy="64797"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509386</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>132546</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Straight Arrow Connector 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="6"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13227273" y="5454606"/>
+          <a:ext cx="830555" cy="2280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1807,205 +3605,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4</v>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6</v>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/project-plan.xlsx
+++ b/project-plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campus\home\Home2015\b5045438\Web Internship\ULTSEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Web Internship\ULTSEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,9 +113,6 @@
     <t>Publishing Uploads</t>
   </si>
   <si>
-    <t>Read List of Uploaded Papers</t>
-  </si>
-  <si>
     <t>Database Setup</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Views of Uploaded Papers</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,6 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,8 +303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6054546" y="695057"/>
-          <a:ext cx="12325216" cy="8508910"/>
+          <a:off x="6065838" y="692150"/>
+          <a:ext cx="12482512" cy="8629650"/>
           <a:chOff x="5886450" y="628650"/>
           <a:chExt cx="10010775" cy="4752975"/>
         </a:xfrm>
@@ -426,8 +430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6390326" y="5251633"/>
-          <a:ext cx="584669" cy="499224"/>
+          <a:off x="6409108" y="5313121"/>
+          <a:ext cx="592160" cy="507273"/>
           <a:chOff x="1224982" y="6227232"/>
           <a:chExt cx="590550" cy="405717"/>
         </a:xfrm>
@@ -2039,10 +2043,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>559022</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>284957</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -2054,14 +2058,14 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="4"/>
+          <a:stCxn id="17" idx="4"/>
           <a:endCxn id="72" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8259515" y="5756587"/>
-          <a:ext cx="3084627" cy="2082219"/>
+          <a:off x="7603332" y="5835650"/>
+          <a:ext cx="4014822" cy="2102207"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2089,10 +2093,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>559022</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>284957</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2104,14 +2108,14 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="4"/>
+          <a:stCxn id="17" idx="4"/>
           <a:endCxn id="70" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8259515" y="5756587"/>
-          <a:ext cx="3052966" cy="1299291"/>
+          <a:off x="7603332" y="5835650"/>
+          <a:ext cx="3975670" cy="1308547"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3605,9 +3609,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3676,13 +3680,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -3718,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3788,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -3802,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -3816,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -3830,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -3844,7 +3848,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -3855,7 +3859,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -3868,52 +3872,58 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
